--- a/real_world/brittany_tokai_villas/2017_2018/ReserveFundBudget.xlsx
+++ b/real_world/brittany_tokai_villas/2017_2018/ReserveFundBudget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" state="visible" r:id="rId2"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>ReserveFundBudget</t>
   </si>
@@ -503,7 +503,10 @@
     <t>Reserve fund budget / Total budget</t>
   </si>
   <si>
-    <t>Percentage change in total budget</t>
+    <t>Previous year's total budget</t>
+  </si>
+  <si>
+    <t>Total budget change from previous year (%)</t>
   </si>
   <si>
     <t>Reserve Fund Summary</t>
@@ -947,7 +950,7 @@
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -18473,10 +18476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18565,40 +18568,40 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="31" t="n">
+      <c r="B13" s="43" t="n">
+        <f aca="false">'Current Financials'!B14</f>
+        <v>907896</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="31" t="n">
         <f aca="false">B11/'Current Financials'!B14-1</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
-        <v>135</v>
-      </c>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25"/>
       <c r="B15" s="31"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="26" t="n">
-        <f aca="false">'Planning and Projections'!B18</f>
-        <v>541293</v>
-      </c>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="26" t="n">
-        <f aca="false">'Current Year Planner'!E13</f>
-        <v>1411150</v>
+        <f aca="false">'Planning and Projections'!B18</f>
+        <v>541293</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18606,77 +18609,86 @@
         <v>138</v>
       </c>
       <c r="B18" s="26" t="n">
-        <f aca="false">B16-B17</f>
-        <v>-869857</v>
+        <f aca="false">'Current Year Planner'!E13</f>
+        <v>1411150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="27" t="n">
-        <f aca="false">(B16-B17)/B17</f>
+      <c r="B19" s="26" t="n">
+        <f aca="false">B17-B18</f>
+        <v>-869857</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="27" t="n">
+        <f aca="false">(B17-B18)/B18</f>
         <v>-0.616417106615172</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="26" t="n">
-        <f aca="false">'Planning and Projections'!B26</f>
-        <v>381713.538</v>
-      </c>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B22" s="26" t="n">
+        <f aca="false">'Planning and Projections'!B26</f>
+        <v>381713.538</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="26" t="n">
         <f aca="false">'Current Year Planner'!E19</f>
         <v>871114.374740984</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="26" t="n">
-        <f aca="false">B21-B22</f>
-        <v>-489400.836740984</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="27" t="n">
-        <f aca="false">(B21-B22)/B22</f>
+      <c r="B24" s="26" t="n">
+        <f aca="false">B22-B23</f>
+        <v>-489400.836740984</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="27" t="n">
+        <f aca="false">(B22-B23)/B23</f>
         <v>-0.561810080205027</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-    </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="27" t="n">
-        <f aca="false">(B21-B16)/B16</f>
-        <v>-0.294811612195244</v>
-      </c>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="27" t="n">
+        <f aca="false">(B22-B17)/B17</f>
+        <v>-0.294811612195244</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="46" t="n">
         <f aca="false">'Planning and Projections'!B27</f>
         <v>5.61509964474758</v>
       </c>

--- a/real_world/brittany_tokai_villas/2017_2018/ReserveFundBudget.xlsx
+++ b/real_world/brittany_tokai_villas/2017_2018/ReserveFundBudget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" state="visible" r:id="rId2"/>
@@ -950,7 +950,7 @@
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1202,7 +1202,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="13" t="n">
-        <v>815758</v>
+        <v>822258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5253,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="30" t="n">
         <f aca="false">E17-'Current Financials'!B18</f>
-        <v>0.654622332854724</v>
+        <v>0.661781743183661</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,7 +5265,7 @@
       <c r="D17" s="25"/>
       <c r="E17" s="31" t="n">
         <f aca="false">('Current Financials'!$B$15+$E$15)/'Current Financials'!$B$14-1</f>
-        <v>0.724622332854724</v>
+        <v>0.731781743183661</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17969,39 +17969,39 @@
       </c>
       <c r="C18" s="26" t="n">
         <f aca="false">B26</f>
-        <v>381713.538</v>
+        <v>375034.788</v>
       </c>
       <c r="D18" s="26" t="n">
         <f aca="false">C26</f>
-        <v>465365.41896</v>
+        <v>451173.07521</v>
       </c>
       <c r="E18" s="26" t="n">
         <f aca="false">D26</f>
-        <v>843277.4897937</v>
+        <v>820658.06626245</v>
       </c>
       <c r="F18" s="26" t="n">
         <f aca="false">E26</f>
-        <v>357203.272012367</v>
+        <v>325158.024250647</v>
       </c>
       <c r="G18" s="26" t="n">
         <f aca="false">F26</f>
-        <v>413202.463796411</v>
+        <v>370640.248556005</v>
       </c>
       <c r="H18" s="26" t="n">
         <f aca="false">G26</f>
-        <v>688112.363643763</v>
+        <v>633841.934193725</v>
       </c>
       <c r="I18" s="26" t="n">
         <f aca="false">H26</f>
-        <v>1234805.23914776</v>
+        <v>1167526.93324057</v>
       </c>
       <c r="J18" s="26" t="n">
         <f aca="false">I26</f>
-        <v>1736639.48019528</v>
+        <v>1654936.25442715</v>
       </c>
       <c r="K18" s="26" t="n">
         <f aca="false">J26</f>
-        <v>1946892.6138471</v>
+        <v>1849220.37471318</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18010,43 +18010,43 @@
       </c>
       <c r="B19" s="26" t="n">
         <f aca="false">'Current Financials'!B15</f>
-        <v>815758</v>
+        <v>822258</v>
       </c>
       <c r="C19" s="26" t="n">
         <f aca="false">B19*(1+'Current Financials'!$B$18)</f>
-        <v>872861.06</v>
+        <v>879816.06</v>
       </c>
       <c r="D19" s="26" t="n">
         <f aca="false">C19*(1+'Current Financials'!$B$18)</f>
-        <v>933961.3342</v>
+        <v>941403.1842</v>
       </c>
       <c r="E19" s="26" t="n">
         <f aca="false">D19*(1+'Current Financials'!$B$18)</f>
-        <v>999338.627594</v>
+        <v>1007301.407094</v>
       </c>
       <c r="F19" s="26" t="n">
         <f aca="false">E19*(1+'Current Financials'!$B$18)</f>
-        <v>1069292.33152558</v>
+        <v>1077812.50559058</v>
       </c>
       <c r="G19" s="26" t="n">
         <f aca="false">F19*(1+'Current Financials'!$B$18)</f>
-        <v>1144142.79473237</v>
+        <v>1153259.38098192</v>
       </c>
       <c r="H19" s="26" t="n">
         <f aca="false">G19*(1+'Current Financials'!$B$18)</f>
-        <v>1224232.79036364</v>
+        <v>1233987.53765066</v>
       </c>
       <c r="I19" s="26" t="n">
         <f aca="false">H19*(1+'Current Financials'!$B$18)</f>
-        <v>1309929.08568909</v>
+        <v>1320366.6652862</v>
       </c>
       <c r="J19" s="26" t="n">
         <f aca="false">I19*(1+'Current Financials'!$B$18)</f>
-        <v>1401624.12168733</v>
+        <v>1412792.33185624</v>
       </c>
       <c r="K19" s="26" t="n">
         <f aca="false">J19*(1+'Current Financials'!$B$18)</f>
-        <v>1499737.81020544</v>
+        <v>1511687.79508617</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18145,43 +18145,43 @@
       </c>
       <c r="B22" s="26" t="n">
         <f aca="false">B21-B19</f>
-        <v>273717.2</v>
+        <v>267217.2</v>
       </c>
       <c r="C22" s="26" t="n">
         <f aca="false">C21-C19</f>
-        <v>369140.668</v>
+        <v>362185.668</v>
       </c>
       <c r="D22" s="26" t="n">
         <f aca="false">D21-D19</f>
-        <v>394980.51476</v>
+        <v>387538.66476</v>
       </c>
       <c r="E22" s="26" t="n">
         <f aca="false">E21-E19</f>
-        <v>422629.1507932</v>
+        <v>414666.3712932</v>
       </c>
       <c r="F22" s="26" t="n">
         <f aca="false">F21-F19</f>
-        <v>452213.191348724</v>
+        <v>443693.017283719</v>
       </c>
       <c r="G22" s="26" t="n">
         <f aca="false">G21-G19</f>
-        <v>483868.114743136</v>
+        <v>474751.528493589</v>
       </c>
       <c r="H22" s="26" t="n">
         <f aca="false">H21-H19</f>
-        <v>517738.882775151</v>
+        <v>507984.135488135</v>
       </c>
       <c r="I22" s="26" t="n">
         <f aca="false">I21-I19</f>
-        <v>553980.604569417</v>
+        <v>543543.024972308</v>
       </c>
       <c r="J22" s="26" t="n">
         <f aca="false">J21-J19</f>
-        <v>592759.246889272</v>
+        <v>581591.036720364</v>
       </c>
       <c r="K22" s="26" t="n">
         <f aca="false">K21-K19</f>
-        <v>634252.394171524</v>
+        <v>622302.409290788</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18202,11 +18202,11 @@
       </c>
       <c r="E23" s="37" t="n">
         <f aca="false">IF(E18&gt;=E25,0,(E25-E18)/(E22/12))</f>
-        <v>2.76996134383647</v>
+        <v>3.47773437318584</v>
       </c>
       <c r="F23" s="37" t="n">
         <f aca="false">IF(F18&gt;=F25,0,(F25-F18)/(F22/12))</f>
-        <v>1.58234727270438</v>
+        <v>2.47941986981682</v>
       </c>
       <c r="G23" s="37" t="n">
         <f aca="false">IF(G18&gt;=G25,0,(G25-G18)/(G22/12))</f>
@@ -18325,43 +18325,43 @@
       </c>
       <c r="B26" s="36" t="n">
         <f aca="false">B18+B22-B25+(2*B18+B22-B25)/2*'Current Financials'!$B$19</f>
-        <v>381713.538</v>
+        <v>375034.788</v>
       </c>
       <c r="C26" s="36" t="n">
         <f aca="false">C18+C22-C25+(2*C18+C22-C25)/2*'Current Financials'!$B$19</f>
-        <v>465365.41896</v>
+        <v>451173.07521</v>
       </c>
       <c r="D26" s="36" t="n">
         <f aca="false">D18+D22-D25+(2*D18+D22-D25)/2*'Current Financials'!$B$19</f>
-        <v>843277.4897937</v>
+        <v>820658.06626245</v>
       </c>
       <c r="E26" s="36" t="n">
         <f aca="false">E18+E22-E25+(2*E18+E22-E25)/2*'Current Financials'!$B$19</f>
-        <v>357203.272012367</v>
+        <v>325158.024250647</v>
       </c>
       <c r="F26" s="36" t="n">
         <f aca="false">F18+F22-F25+(2*F18+F22-F25)/2*'Current Financials'!$B$19</f>
-        <v>413202.463796411</v>
+        <v>370640.248556005</v>
       </c>
       <c r="G26" s="36" t="n">
         <f aca="false">G18+G22-G25+(2*G18+G22-G25)/2*'Current Financials'!$B$19</f>
-        <v>688112.363643763</v>
+        <v>633841.934193725</v>
       </c>
       <c r="H26" s="36" t="n">
         <f aca="false">H18+H22-H25+(2*H18+H22-H25)/2*'Current Financials'!$B$19</f>
-        <v>1234805.23914776</v>
+        <v>1167526.93324057</v>
       </c>
       <c r="I26" s="36" t="n">
         <f aca="false">I18+I22-I25+(2*I18+I22-I25)/2*'Current Financials'!$B$19</f>
-        <v>1736639.48019528</v>
+        <v>1654936.25442715</v>
       </c>
       <c r="J26" s="36" t="n">
         <f aca="false">J18+J22-J25+(2*J18+J22-J25)/2*'Current Financials'!$B$19</f>
-        <v>1946892.6138471</v>
+        <v>1849220.37471318</v>
       </c>
       <c r="K26" s="36" t="n">
         <f aca="false">K18+K22-K25+(2*K18+K22-K25)/2*'Current Financials'!$B$19</f>
-        <v>1293625.95415056</v>
+        <v>1178303.13239932</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18370,43 +18370,43 @@
       </c>
       <c r="B27" s="39" t="n">
         <f aca="false">B26/B19*12</f>
-        <v>5.61509964474758</v>
+        <v>5.47324252971695</v>
       </c>
       <c r="C27" s="39" t="n">
         <f aca="false">C26/C19*12</f>
-        <v>6.39779374224805</v>
+        <v>6.1536463684466</v>
       </c>
       <c r="D27" s="39" t="n">
         <f aca="false">D26/D19*12</f>
-        <v>10.8348488389964</v>
+        <v>10.4608704967554</v>
       </c>
       <c r="E27" s="39" t="n">
         <f aca="false">E26/E19*12</f>
-        <v>4.28927607298479</v>
+        <v>3.87361346219548</v>
       </c>
       <c r="F27" s="39" t="n">
         <f aca="false">F26/F19*12</f>
-        <v>4.63711318165225</v>
+        <v>4.12658320403787</v>
       </c>
       <c r="G27" s="39" t="n">
         <f aca="false">G26/G19*12</f>
-        <v>7.2170610187312</v>
+        <v>6.59531007139836</v>
       </c>
       <c r="H27" s="39" t="n">
         <f aca="false">H26/H19*12</f>
-        <v>12.1036317491315</v>
+        <v>11.3536991026348</v>
       </c>
       <c r="I27" s="39" t="n">
         <f aca="false">I26/I19*12</f>
-        <v>15.9090091135587</v>
+        <v>15.0406970845641</v>
       </c>
       <c r="J27" s="39" t="n">
         <f aca="false">J26/J19*12</f>
-        <v>16.6683142824627</v>
+        <v>15.706940076184</v>
       </c>
       <c r="K27" s="39" t="n">
         <f aca="false">K26/K19*12</f>
-        <v>10.350816885573</v>
+        <v>9.3535435258216</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18478,7 +18478,7 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -18537,7 +18537,7 @@
       </c>
       <c r="B9" s="43" t="n">
         <f aca="false">'Current Financials'!B15</f>
-        <v>815758</v>
+        <v>822258</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="B10" s="43" t="n">
         <f aca="false">'Planning and Projections'!B22</f>
-        <v>273717.2</v>
+        <v>267217.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B12" s="44" t="n">
         <f aca="false">B10/B11</f>
-        <v>0.251237660113787</v>
+        <v>0.245271484839673</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B22" s="26" t="n">
         <f aca="false">'Planning and Projections'!B26</f>
-        <v>381713.538</v>
+        <v>375034.788</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="B24" s="26" t="n">
         <f aca="false">B22-B23</f>
-        <v>-489400.836740984</v>
+        <v>-496079.586740984</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18668,7 +18668,7 @@
       </c>
       <c r="B25" s="27" t="n">
         <f aca="false">(B22-B23)/B23</f>
-        <v>-0.561810080205027</v>
+        <v>-0.569476983878825</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="B27" s="27" t="n">
         <f aca="false">(B22-B17)/B17</f>
-        <v>-0.294811612195244</v>
+        <v>-0.307150123870067</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="B28" s="46" t="n">
         <f aca="false">'Planning and Projections'!B27</f>
-        <v>5.61509964474758</v>
+        <v>5.47324252971695</v>
       </c>
     </row>
   </sheetData>
